--- a/biology/Médecine/Fosse_ptérygo-palatine/Fosse_ptérygo-palatine.xlsx
+++ b/biology/Médecine/Fosse_ptérygo-palatine/Fosse_ptérygo-palatine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fosse_pt%C3%A9rygo-palatine</t>
+          <t>Fosse_ptérygo-palatine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La fosse ptérygo(-)palatine (ou arrière fosse ptérygo-maxillaire) est une cavité du crâne. Elle constitue la partie la plus profonde de la fosse infratemporale.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fosse_pt%C3%A9rygo-palatine</t>
+          <t>Fosse_ptérygo-palatine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Limites</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La fosse ptérygopalatine est limitée par :
 en avant : la tubérosité maxillaire,
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fosse_pt%C3%A9rygo-palatine</t>
+          <t>Fosse_ptérygo-palatine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Communication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La fosse ptérygomaxillaire communique avec plusieurs autres cavités du crâne.
 </t>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fosse_pt%C3%A9rygo-palatine</t>
+          <t>Fosse_ptérygo-palatine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Contenu</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La fosse ptérygopalatine contient le ganglion ptérygopalatin suspendu par les racines nerveuses du nerf maxillaire, le nerf du canal ptérygoïdien et le tiers terminal de l'artère maxillaire.
 </t>
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fosse_pt%C3%A9rygo-palatine</t>
+          <t>Fosse_ptérygo-palatine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,7 +627,9 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La fosse ptérygopalatine est un espace de communication entre différentes orifices et cavités qui creusent le crâne et le massif facial. Elle est de ce fait une voie d'extension privilégiée pour les tumeurs de la sphère ORL (extension péri-nerveuse).
 Pour obtenir une anesthésie en bloc de toute la deuxième division du nerf trijumeau, une injection intra-orale peut être administrée dans cette zone.
